--- a/Video Games, Sticky Prices, and Price Architecture/MC_Curves2.xlsx
+++ b/Video Games, Sticky Prices, and Price Architecture/MC_Curves2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\GitHub\Apricitas\Video Games, Sticky Prices, and Price Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42033922-68FB-4628-A25F-62B89705F9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5FB1DE-D32C-43EB-A3AE-888177E91698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="4500" windowWidth="21600" windowHeight="10935"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MC_Curves" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,6 +578,1538 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MC_Curves!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MC_Traditional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MC_Curves!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A261-456D-B11E-A4A3F98D384E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MC_Curves!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC_Traditional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MC_Curves!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.1875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.352941176470587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.789473684210527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.217391304347828</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.791666666666671</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.153846153846153</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.925925925925924</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.655172413793103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38.677419354838705</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.78125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.939393939393938</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.147058823529413</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.694444444444443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.027027027027032</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40.39473684210526</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.794871794871796</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41.225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.682926829268297</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.674418604651166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.204545454545453</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43.755555555555553</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44.326086956521742</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44.914893617021278</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45.520833333333336</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46.78</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.431372549019606</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48.096153846153847</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48.773584905660378</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49.462962962962962</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.163636363636364</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>51.596491228070178</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.327586206896555</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>53.067796610169495</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>53.81666666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>54.57377049180328</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>55.338709677419352</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>56.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>56.890625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57.676923076923075</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58.469696969696969</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59.268656716417908</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60.073529411764703</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60.884057971014492</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62.521126760563384</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63.347222222222221</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64.178082191780817</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65.013513513513516</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>65.853333333333325</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>66.69736842105263</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>67.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>68.397435897435898</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>69.25316455696202</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>70.112499999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>70.975308641975317</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71.841463414634148</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>72.710843373493987</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>73.583333333333343</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>74.45882352941176</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>75.337209302325576</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>76.218390804597703</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>77.102272727272734</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>77.988764044943821</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>78.87777777777778</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>79.769230769230774</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>80.663043478260875</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>81.55913978494624</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>82.457446808510639</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>83.357894736842098</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>84.260416666666671</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>85.164948453608247</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>86.071428571428569</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>86.979797979797979</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A261-456D-B11E-A4A3F98D384E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2122113552"/>
+        <c:axId val="2122113136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2122113552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122113136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2122113136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122113552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110EAD67-FC5E-46AE-887D-FC4765B1D47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -874,11 +2406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,16 +2437,17 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <f>SUM(B2:B$2)/A2 + 10</f>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,16 +2455,17 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <f>SUM(B$2:B3)/A3 + 10</f>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,16 +2473,17 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <f>SUM(B$2:B4)/A4 + 10</f>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.666666670000001</v>
+        <v>33.333333330000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,16 +2491,17 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <f>SUM(B$2:B5)/A5 + 10</f>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,16 +2509,17 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <f>SUM(B$2:B6)/A6 + 10</f>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,16 +2527,17 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <f>SUM(B$2:B7)/A7 + 10</f>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.3333333330000006</v>
+        <v>16.666666670000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,16 +2545,17 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <f>SUM(B$2:B8)/A8 + 10</f>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.1428571429999996</v>
+        <v>14.28571429</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,16 +2563,17 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <f>SUM(B$2:B9)/A9 + 10</f>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,16 +2581,17 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <f>SUM(B$2:B10)/A10 + 10</f>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.5555555559999998</v>
+        <v>11.11111111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,16 +2599,17 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <f>SUM(B$2:B11)/A11 + 10</f>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,16 +2617,17 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <f>SUM(B$2:B12)/A12 + 10</f>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.5454545450000001</v>
+        <v>9.0909090910000003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,16 +2635,17 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>44.25</v>
+        <f>SUM(B$2:B13)/A13 + 10</f>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.1666666670000003</v>
+        <v>8.3333333330000006</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,16 +2653,17 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>43.69230769</v>
+        <f>SUM(B$2:B14)/A14 + 10</f>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.846153846</v>
+        <v>7.692307692</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,16 +2671,17 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>43.285714290000001</v>
+        <f>SUM(B$2:B15)/A15 + 10</f>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3.5714285710000002</v>
+        <v>7.1428571429999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,16 +2689,17 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <f>SUM(B$2:B16)/A16 + 10</f>
+        <v>46.06666666666667</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3.3333333330000001</v>
+        <v>6.6666666670000003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,16 +2707,17 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>42.875</v>
+        <f>SUM(B$2:B17)/A17 + 10</f>
+        <v>45.1875</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,16 +2725,17 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>42.882352939999997</v>
+        <f>SUM(B$2:B18)/A18 + 10</f>
+        <v>44.352941176470587</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.9411764709999999</v>
+        <v>5.8823529409999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,13 +2746,14 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <f>SUM(B$2:B19)/A19 + 10</f>
+        <v>43.555555555555557</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.7777777779999999</v>
+        <v>5.5555555559999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,16 +2761,17 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>43.21052632</v>
+        <f>SUM(B$2:B20)/A20 + 10</f>
+        <v>42.789473684210527</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.6315789469999999</v>
+        <v>5.263157895</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,16 +2779,17 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>43.5</v>
+        <f>SUM(B$2:B21)/A21 + 10</f>
+        <v>42.05</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1245,16 +2797,17 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>43.857142860000003</v>
+        <f>SUM(B$2:B22)/A22 + 10</f>
+        <v>41.333333333333329</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.3809523810000002</v>
+        <v>4.7619047620000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,16 +2815,17 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>44.272727269999997</v>
+        <f>SUM(B$2:B23)/A23 + 10</f>
+        <v>40.727272727272727</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.2727272730000001</v>
+        <v>4.5454545450000001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,16 +2833,17 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>44.739130430000003</v>
+        <f>SUM(B$2:B24)/A24 + 10</f>
+        <v>40.217391304347828</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.1739130430000002</v>
+        <v>4.3478260869999996</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,16 +2851,17 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>45.25</v>
+        <f>SUM(B$2:B25)/A25 + 10</f>
+        <v>39.791666666666671</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2.0833333330000001</v>
+        <v>4.1666666670000003</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,16 +2869,17 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C26">
-        <v>45.8</v>
+        <f>SUM(B$2:B26)/A26 + 10</f>
+        <v>39.44</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,16 +2887,17 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>46.38461538</v>
+        <f>SUM(B$2:B27)/A27 + 10</f>
+        <v>39.153846153846153</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.923076923</v>
+        <v>3.846153846</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,16 +2905,17 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <f>SUM(B$2:B28)/A28 + 10</f>
+        <v>38.925925925925924</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1.851851852</v>
+        <v>3.703703704</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,16 +2923,17 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>47.642857139999997</v>
+        <f>SUM(B$2:B29)/A29 + 10</f>
+        <v>38.75</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1.7857142859999999</v>
+        <v>3.5714285710000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,16 +2941,17 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>48.310344829999998</v>
+        <f>SUM(B$2:B30)/A30 + 10</f>
+        <v>38.655172413793103</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1.724137931</v>
+        <v>3.448275862</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,16 +2959,17 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <f>SUM(B$2:B31)/A31 + 10</f>
+        <v>38.633333333333333</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1.6666666670000001</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1415,16 +2977,17 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>49.709677419999998</v>
+        <f>SUM(B$2:B32)/A32 + 10</f>
+        <v>38.677419354838705</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1.612903226</v>
+        <v>3.225806452</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,16 +2995,17 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>50.4375</v>
+        <f>SUM(B$2:B33)/A33 + 10</f>
+        <v>38.78125</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,16 +3013,17 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>51.18181818</v>
+        <f>SUM(B$2:B34)/A34 + 10</f>
+        <v>38.939393939393938</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1.5151515149999999</v>
+        <v>3.0303030299999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1466,16 +3031,17 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>51.941176470000002</v>
+        <f>SUM(B$2:B35)/A35 + 10</f>
+        <v>39.147058823529413</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1.4705882349999999</v>
+        <v>2.9411764709999999</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,16 +3049,17 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>52.714285709999999</v>
+        <f>SUM(B$2:B36)/A36 + 10</f>
+        <v>39.4</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1.428571429</v>
+        <v>2.8571428569999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1500,16 +3067,17 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C37">
-        <v>53.5</v>
+        <f>SUM(B$2:B37)/A37 + 10</f>
+        <v>39.694444444444443</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1.388888889</v>
+        <v>2.7777777779999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,16 +3085,17 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>54.297297299999997</v>
+        <f>SUM(B$2:B38)/A38 + 10</f>
+        <v>40.027027027027032</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.3513513509999999</v>
+        <v>2.7027027029999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1534,16 +3103,17 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>55.10526316</v>
+        <f>SUM(B$2:B39)/A39 + 10</f>
+        <v>40.39473684210526</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1.315789474</v>
+        <v>2.6315789469999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,16 +3121,17 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>55.92307692</v>
+        <f>SUM(B$2:B40)/A40 + 10</f>
+        <v>40.794871794871796</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1.2820512820000001</v>
+        <v>2.5641025640000001</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,16 +3139,17 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C41">
-        <v>56.75</v>
+        <f>SUM(B$2:B41)/A41 + 10</f>
+        <v>41.225000000000001</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,16 +3157,17 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>57.585365850000002</v>
+        <f>SUM(B$2:B42)/A42 + 10</f>
+        <v>41.682926829268297</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1.2195121950000001</v>
+        <v>2.4390243900000002</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,16 +3175,17 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C43">
-        <v>58.428571429999998</v>
+        <f>SUM(B$2:B43)/A43 + 10</f>
+        <v>42.166666666666664</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.19047619</v>
+        <v>2.3809523810000002</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,16 +3193,17 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C44">
-        <v>59.27906977</v>
+        <f>SUM(B$2:B44)/A44 + 10</f>
+        <v>42.674418604651166</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.162790698</v>
+        <v>2.3255813949999999</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,16 +3211,17 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>60.136363639999999</v>
+        <f>SUM(B$2:B45)/A45 + 10</f>
+        <v>43.204545454545453</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1.136363636</v>
+        <v>2.2727272730000001</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,16 +3229,17 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C46">
-        <v>61</v>
+        <f>SUM(B$2:B46)/A46 + 10</f>
+        <v>43.755555555555553</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1.111111111</v>
+        <v>2.2222222220000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,16 +3247,17 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C47">
-        <v>61.869565219999998</v>
+        <f>SUM(B$2:B47)/A47 + 10</f>
+        <v>44.326086956521742</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1.0869565219999999</v>
+        <v>2.1739130430000002</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,16 +3265,17 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C48">
-        <v>62.744680850000002</v>
+        <f>SUM(B$2:B48)/A48 + 10</f>
+        <v>44.914893617021278</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1.063829787</v>
+        <v>2.1276595739999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,16 +3283,17 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C49">
-        <v>63.625</v>
+        <f>SUM(B$2:B49)/A49 + 10</f>
+        <v>45.520833333333336</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1.0416666670000001</v>
+        <v>2.0833333330000001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,16 +3301,17 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C50">
-        <v>64.510204079999994</v>
+        <f>SUM(B$2:B50)/A50 + 10</f>
+        <v>46.142857142857146</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1.0204081629999999</v>
+        <v>2.0408163269999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,16 +3319,17 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C51">
-        <v>65.400000000000006</v>
+        <f>SUM(B$2:B51)/A51 + 10</f>
+        <v>46.78</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,16 +3337,17 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C52">
-        <v>66.294117650000004</v>
+        <f>SUM(B$2:B52)/A52 + 10</f>
+        <v>47.431372549019606</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.98039215700000004</v>
+        <v>1.9607843140000001</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,16 +3355,17 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C53">
-        <v>67.192307690000007</v>
+        <f>SUM(B$2:B53)/A53 + 10</f>
+        <v>48.096153846153847</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.96153846200000004</v>
+        <v>1.923076923</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1789,16 +3373,17 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C54">
-        <v>68.09433962</v>
+        <f>SUM(B$2:B54)/A54 + 10</f>
+        <v>48.773584905660378</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.94339622599999995</v>
+        <v>1.886792453</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,16 +3391,17 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C55">
-        <v>69</v>
+        <f>SUM(B$2:B55)/A55 + 10</f>
+        <v>49.462962962962962</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.92592592600000001</v>
+        <v>1.851851852</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,16 +3409,17 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C56">
-        <v>69.909090910000003</v>
+        <f>SUM(B$2:B56)/A56 + 10</f>
+        <v>50.163636363636364</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.909090909</v>
+        <v>1.818181818</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,16 +3427,17 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C57">
-        <v>70.821428569999995</v>
+        <f>SUM(B$2:B57)/A57 + 10</f>
+        <v>50.875</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.89285714299999996</v>
+        <v>1.7857142859999999</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,16 +3445,17 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C58">
-        <v>71.736842109999998</v>
+        <f>SUM(B$2:B58)/A58 + 10</f>
+        <v>51.596491228070178</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.87719298199999995</v>
+        <v>1.754385965</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,16 +3463,17 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C59">
-        <v>72.655172410000006</v>
+        <f>SUM(B$2:B59)/A59 + 10</f>
+        <v>52.327586206896555</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.86206896600000005</v>
+        <v>1.724137931</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,16 +3481,17 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C60">
-        <v>73.57627119</v>
+        <f>SUM(B$2:B60)/A60 + 10</f>
+        <v>53.067796610169495</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.84745762700000005</v>
+        <v>1.6949152540000001</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,16 +3499,17 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C61">
-        <v>74.5</v>
+        <f>SUM(B$2:B61)/A61 + 10</f>
+        <v>53.81666666666667</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.83333333300000001</v>
+        <v>1.6666666670000001</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,16 +3517,17 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C62">
-        <v>75.426229509999999</v>
+        <f>SUM(B$2:B62)/A62 + 10</f>
+        <v>54.57377049180328</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.81967213100000003</v>
+        <v>1.6393442620000001</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,16 +3535,17 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C63">
-        <v>76.354838709999996</v>
+        <f>SUM(B$2:B63)/A63 + 10</f>
+        <v>55.338709677419352</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.80645161300000001</v>
+        <v>1.612903226</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,16 +3553,17 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C64">
-        <v>77.285714290000001</v>
+        <f>SUM(B$2:B64)/A64 + 10</f>
+        <v>56.111111111111114</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.79365079400000005</v>
+        <v>1.587301587</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,16 +3571,17 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C65">
-        <v>78.21875</v>
+        <f>SUM(B$2:B65)/A65 + 10</f>
+        <v>56.890625</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.78125</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,16 +3589,17 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C66">
-        <v>79.153846150000007</v>
+        <f>SUM(B$2:B66)/A66 + 10</f>
+        <v>57.676923076923075</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.76923076899999998</v>
+        <v>1.538461538</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,16 +3607,17 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C67">
-        <v>80.090909089999997</v>
+        <f>SUM(B$2:B67)/A67 + 10</f>
+        <v>58.469696969696969</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.75757575799999999</v>
+        <v>1.5151515149999999</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,16 +3625,17 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C68">
-        <v>81.029850749999994</v>
+        <f>SUM(B$2:B68)/A68 + 10</f>
+        <v>59.268656716417908</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.746268657</v>
+        <v>1.4925373129999999</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,16 +3643,17 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C69">
-        <v>81.970588239999998</v>
+        <f>SUM(B$2:B69)/A69 + 10</f>
+        <v>60.073529411764703</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.735294118</v>
+        <v>1.4705882349999999</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2061,16 +3661,17 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C70">
-        <v>82.913043479999999</v>
+        <f>SUM(B$2:B70)/A70 + 10</f>
+        <v>60.884057971014492</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.72463768100000003</v>
+        <v>1.4492753620000001</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,16 +3679,17 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C71">
-        <v>83.857142859999996</v>
+        <f>SUM(B$2:B71)/A71 + 10</f>
+        <v>61.7</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.71428571399999996</v>
+        <v>1.428571429</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,16 +3697,17 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C72">
-        <v>84.802816899999996</v>
+        <f>SUM(B$2:B72)/A72 + 10</f>
+        <v>62.521126760563384</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.70422535200000003</v>
+        <v>1.4084507040000001</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2112,16 +3715,17 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C73">
-        <v>85.75</v>
+        <f>SUM(B$2:B73)/A73 + 10</f>
+        <v>63.347222222222221</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0.69444444400000005</v>
+        <v>1.388888889</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,16 +3733,17 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C74">
-        <v>86.698630140000006</v>
+        <f>SUM(B$2:B74)/A74 + 10</f>
+        <v>64.178082191780817</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.68493150700000005</v>
+        <v>1.3698630140000001</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2146,16 +3751,17 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C75">
-        <v>87.648648649999998</v>
+        <f>SUM(B$2:B75)/A75 + 10</f>
+        <v>65.013513513513516</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.675675676</v>
+        <v>1.3513513509999999</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,16 +3769,17 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C76">
-        <v>88.6</v>
+        <f>SUM(B$2:B76)/A76 + 10</f>
+        <v>65.853333333333325</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.66666666699999999</v>
+        <v>1.3333333329999999</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,16 +3787,17 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C77">
-        <v>89.552631579999996</v>
+        <f>SUM(B$2:B77)/A77 + 10</f>
+        <v>66.69736842105263</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.65789473700000001</v>
+        <v>1.315789474</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,16 +3805,17 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C78">
-        <v>90.506493509999999</v>
+        <f>SUM(B$2:B78)/A78 + 10</f>
+        <v>67.545454545454547</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.64935064899999995</v>
+        <v>1.298701299</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2214,16 +3823,17 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C79">
-        <v>91.46153846</v>
+        <f>SUM(B$2:B79)/A79 + 10</f>
+        <v>68.397435897435898</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.64102564100000003</v>
+        <v>1.2820512820000001</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,16 +3841,17 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C80">
-        <v>92.417721520000001</v>
+        <f>SUM(B$2:B80)/A80 + 10</f>
+        <v>69.25316455696202</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.63291139200000002</v>
+        <v>1.2658227849999999</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,16 +3859,17 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C81">
-        <v>93.375</v>
+        <f>SUM(B$2:B81)/A81 + 10</f>
+        <v>70.112499999999997</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,16 +3877,17 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C82">
-        <v>94.333333330000002</v>
+        <f>SUM(B$2:B82)/A82 + 10</f>
+        <v>70.975308641975317</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.617283951</v>
+        <v>1.2345679009999999</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,16 +3895,17 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C83">
-        <v>95.292682929999998</v>
+        <f>SUM(B$2:B83)/A83 + 10</f>
+        <v>71.841463414634148</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.60975609799999997</v>
+        <v>1.2195121950000001</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,16 +3913,17 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C84">
-        <v>96.253012049999995</v>
+        <f>SUM(B$2:B84)/A84 + 10</f>
+        <v>72.710843373493987</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.602409639</v>
+        <v>1.2048192769999999</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,16 +3931,17 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C85">
-        <v>97.214285709999999</v>
+        <f>SUM(B$2:B85)/A85 + 10</f>
+        <v>73.583333333333343</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.59523809500000002</v>
+        <v>1.19047619</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,16 +3949,17 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C86">
-        <v>98.176470589999994</v>
+        <f>SUM(B$2:B86)/A86 + 10</f>
+        <v>74.45882352941176</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.58823529399999996</v>
+        <v>1.1764705879999999</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,16 +3967,17 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C87">
-        <v>99.139534879999999</v>
+        <f>SUM(B$2:B87)/A87 + 10</f>
+        <v>75.337209302325576</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.58139534900000001</v>
+        <v>1.162790698</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2367,16 +3985,17 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C88">
-        <v>100.1034483</v>
+        <f>SUM(B$2:B88)/A88 + 10</f>
+        <v>76.218390804597703</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.57471264399999999</v>
+        <v>1.1494252869999999</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,16 +4003,17 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C89">
-        <v>101.0681818</v>
+        <f>SUM(B$2:B89)/A89 + 10</f>
+        <v>77.102272727272734</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.56818181800000001</v>
+        <v>1.136363636</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2401,16 +4021,17 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C90">
-        <v>102.0337079</v>
+        <f>SUM(B$2:B90)/A90 + 10</f>
+        <v>77.988764044943821</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0.56179775300000001</v>
+        <v>1.123595506</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,16 +4039,17 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C91">
-        <v>103</v>
+        <f>SUM(B$2:B91)/A91 + 10</f>
+        <v>78.87777777777778</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0.55555555599999995</v>
+        <v>1.111111111</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2435,16 +4057,17 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C92">
-        <v>103.967033</v>
+        <f>SUM(B$2:B92)/A92 + 10</f>
+        <v>79.769230769230774</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.54945054900000001</v>
+        <v>1.0989010990000001</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,16 +4075,17 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C93">
-        <v>104.93478260000001</v>
+        <f>SUM(B$2:B93)/A93 + 10</f>
+        <v>80.663043478260875</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.54347826099999996</v>
+        <v>1.0869565219999999</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,16 +4093,17 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C94">
-        <v>105.9032258</v>
+        <f>SUM(B$2:B94)/A94 + 10</f>
+        <v>81.55913978494624</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0.53763440900000004</v>
+        <v>1.075268817</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,16 +4111,17 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C95">
-        <v>106.8723404</v>
+        <f>SUM(B$2:B95)/A95 + 10</f>
+        <v>82.457446808510639</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0.53191489400000003</v>
+        <v>1.063829787</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,16 +4129,17 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C96">
-        <v>107.8421053</v>
+        <f>SUM(B$2:B96)/A96 + 10</f>
+        <v>83.357894736842098</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0.52631578899999998</v>
+        <v>1.052631579</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,16 +4147,17 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C97">
-        <v>108.8125</v>
+        <f>SUM(B$2:B97)/A97 + 10</f>
+        <v>84.260416666666671</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0.52083333300000001</v>
+        <v>1.0416666670000001</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,16 +4165,17 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C98">
-        <v>109.78350519999999</v>
+        <f>SUM(B$2:B98)/A98 + 10</f>
+        <v>85.164948453608247</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0.51546391800000002</v>
+        <v>1.030927835</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2554,16 +4183,17 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C99">
-        <v>110.75510199999999</v>
+        <f>SUM(B$2:B99)/A99 + 10</f>
+        <v>86.071428571428569</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0.510204082</v>
+        <v>1.0204081629999999</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,16 +4201,17 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C100">
-        <v>111.7272727</v>
+        <f>SUM(B$2:B100)/A100 + 10</f>
+        <v>86.979797979797979</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0.50505050500000004</v>
+        <v>1.0101010100000001</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2588,19 +4219,21 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C101">
-        <v>112.7</v>
+        <f>SUM(B$2:B101)/A101 + 10</f>
+        <v>87.89</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Video Games, Sticky Prices, and Price Architecture/MC_Curves2.xlsx
+++ b/Video Games, Sticky Prices, and Price Architecture/MC_Curves2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\GitHub\Apricitas\Video Games, Sticky Prices, and Price Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5FB1DE-D32C-43EB-A3AE-888177E91698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5149D-519F-4396-A3FA-8F805CEB9B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,309 +656,219 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MC_Curves!$B$2:$B$101</c:f>
+              <c:f>MC_Curves!$B$2:$B$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>20.480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>16.384000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>14.745600000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>13.271040000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>12.607488000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34</c:v>
+                  <c:v>12.607488000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>13.237862400000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>15.237862400000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>17.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>19.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
+                  <c:v>21.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>23.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>25.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>27.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>29.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>31.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>33.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17</c:v>
+                  <c:v>35.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18</c:v>
+                  <c:v>37.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19</c:v>
+                  <c:v>39.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20</c:v>
+                  <c:v>41.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21</c:v>
+                  <c:v>43.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22</c:v>
+                  <c:v>45.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23</c:v>
+                  <c:v>47.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24</c:v>
+                  <c:v>49.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26</c:v>
+                  <c:v>51.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28</c:v>
+                  <c:v>53.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>55.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>57.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>59.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36</c:v>
+                  <c:v>61.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38</c:v>
+                  <c:v>63.237862400000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40</c:v>
+                  <c:v>65.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42</c:v>
+                  <c:v>67.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44</c:v>
+                  <c:v>69.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46</c:v>
+                  <c:v>71.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48</c:v>
+                  <c:v>73.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50</c:v>
+                  <c:v>75.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>52</c:v>
+                  <c:v>77.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>54</c:v>
+                  <c:v>79.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56</c:v>
+                  <c:v>81.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>58</c:v>
+                  <c:v>83.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60</c:v>
+                  <c:v>85.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62</c:v>
+                  <c:v>87.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>64</c:v>
+                  <c:v>89.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>66</c:v>
+                  <c:v>91.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68</c:v>
+                  <c:v>93.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>70</c:v>
+                  <c:v>95.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>72</c:v>
+                  <c:v>97.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74</c:v>
+                  <c:v>99.237862400000012</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>76</c:v>
+                  <c:v>101.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>78</c:v>
+                  <c:v>103.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>80</c:v>
+                  <c:v>105.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>82</c:v>
+                  <c:v>107.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>84</c:v>
+                  <c:v>109.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>86</c:v>
+                  <c:v>111.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>88</c:v>
+                  <c:v>113.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90</c:v>
+                  <c:v>115.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>92</c:v>
+                  <c:v>117.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>94</c:v>
+                  <c:v>119.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>96</c:v>
+                  <c:v>121.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>98</c:v>
+                  <c:v>123.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>100</c:v>
+                  <c:v>125.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>102</c:v>
+                  <c:v>127.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>104</c:v>
+                  <c:v>129.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>106</c:v>
+                  <c:v>131.23786240000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>168</c:v>
+                  <c:v>133.23786240000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,309 +908,219 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>MC_Curves!$C$2:$C$101</c:f>
+              <c:f>MC_Curves!$C$2:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>39.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>34.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>30.892800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>28.201599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>26.068662857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53</c:v>
+                  <c:v>24.386015999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>23.077290666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>22.09334784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>21.470121890909091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>21.117433600000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>20.972851200000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47</c:v>
+                  <c:v>20.991780571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.06666666666667</c:v>
+                  <c:v>21.14151936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.1875</c:v>
+                  <c:v>21.397540799999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.352941176470587</c:v>
+                  <c:v>21.741089129411762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43.555555555555557</c:v>
+                  <c:v>22.15757653333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.789473684210527</c:v>
+                  <c:v>22.635486315789468</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.05</c:v>
+                  <c:v>23.165605119999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.333333333333329</c:v>
+                  <c:v>23.740474514285708</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.727272727272727</c:v>
+                  <c:v>24.353992145454541</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.217391304347828</c:v>
+                  <c:v>25.001116939130434</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.791666666666671</c:v>
+                  <c:v>25.677648000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39.44</c:v>
+                  <c:v>26.380056576000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.153846153846153</c:v>
+                  <c:v>27.105356800000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38.925925925925924</c:v>
+                  <c:v>27.851005155555558</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38.75</c:v>
+                  <c:v>28.614821485714291</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38.655172413793103</c:v>
+                  <c:v>29.394926344827592</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.633333333333333</c:v>
+                  <c:v>30.189690880000008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38.677419354838705</c:v>
+                  <c:v>30.997696412903235</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38.78125</c:v>
+                  <c:v>31.81770160000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38.939393939393938</c:v>
+                  <c:v>32.648615563636369</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.147058823529413</c:v>
+                  <c:v>33.489475764705894</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.4</c:v>
+                  <c:v>34.339429668571441</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.694444444444443</c:v>
+                  <c:v>35.197719466666676</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40.027027027027032</c:v>
+                  <c:v>36.063669275675686</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.39473684210526</c:v>
+                  <c:v>36.936674357894752</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40.794871794871796</c:v>
+                  <c:v>37.816192000000015</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41.225000000000001</c:v>
+                  <c:v>38.70173376000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.682926829268297</c:v>
+                  <c:v>39.592858848780502</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.166666666666664</c:v>
+                  <c:v>40.489168457142874</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.674418604651166</c:v>
+                  <c:v>41.390300874418621</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.204545454545453</c:v>
+                  <c:v>42.29592727272729</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.755555555555553</c:v>
+                  <c:v>43.205748053333352</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44.326086956521742</c:v>
+                  <c:v>44.119489669565233</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44.914893617021278</c:v>
+                  <c:v>45.036901855319158</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45.520833333333336</c:v>
+                  <c:v>45.957755200000008</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>46.142857142857146</c:v>
+                  <c:v>46.881839020408165</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>46.78</c:v>
+                  <c:v>47.808959487999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>47.431372549019606</c:v>
+                  <c:v>48.738937976470588</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>48.096153846153847</c:v>
+                  <c:v>49.671609599999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>48.773584905660378</c:v>
+                  <c:v>50.606821916981119</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>49.462962962962962</c:v>
+                  <c:v>51.544433777777762</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.163636363636364</c:v>
+                  <c:v>52.4843142981818</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50.875</c:v>
+                  <c:v>53.426341942857121</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.596491228070178</c:v>
+                  <c:v>54.370403705263136</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52.327586206896555</c:v>
+                  <c:v>55.316394372413768</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>53.067796610169495</c:v>
+                  <c:v>56.264215864406751</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>53.81666666666667</c:v>
+                  <c:v>57.213776639999971</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>54.57377049180328</c:v>
+                  <c:v>58.164991160655703</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>55.338709677419352</c:v>
+                  <c:v>59.117779406451575</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>56.111111111111114</c:v>
+                  <c:v>60.072066438095199</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>56.890625</c:v>
+                  <c:v>61.027781999999959</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>57.676923076923075</c:v>
+                  <c:v>61.984860159999954</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>58.469696969696969</c:v>
+                  <c:v>62.943238981818133</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>59.268656716417908</c:v>
+                  <c:v>63.902860226865634</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>60.073529411764703</c:v>
+                  <c:v>64.863669082352899</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>60.884057971014492</c:v>
+                  <c:v>65.825613913043441</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>61.7</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>62.521126760563384</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>63.347222222222221</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>64.178082191780817</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>65.013513513513516</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>65.853333333333325</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>66.69736842105263</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>67.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>68.397435897435898</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>69.25316455696202</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>70.112499999999997</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>70.975308641975317</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>71.841463414634148</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>72.710843373493987</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>73.583333333333343</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>74.45882352941176</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>75.337209302325576</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>76.218390804597703</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>77.102272727272734</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>77.988764044943821</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>78.87777777777778</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>79.769230769230774</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>80.663043478260875</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>81.55913978494624</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>82.457446808510639</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>83.357894736842098</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>84.260416666666671</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>85.164948453608247</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>86.071428571428569</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>86.979797979797979</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>87.89</c:v>
+                  <c:v>66.788646034285691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,10 +2257,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <f>SUM(B2:B$2)/A2 + 10</f>
+        <f>(SUM(B2:B$2)+20)/A2</f>
         <v>60</v>
       </c>
       <c r="D2">
@@ -2455,11 +2275,12 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <f>B2*0.8</f>
+        <v>32</v>
       </c>
       <c r="C3">
-        <f>SUM(B$2:B3)/A3 + 10</f>
-        <v>59</v>
+        <f>(SUM(B$2:B3)+20)/A3</f>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2473,11 +2294,12 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <f t="shared" ref="B4:B6" si="0">B3*0.8</f>
+        <v>25.6</v>
       </c>
       <c r="C4">
-        <f>SUM(B$2:B4)/A4 + 10</f>
-        <v>58</v>
+        <f>(SUM(B$2:B4)+20)/A4</f>
+        <v>39.199999999999996</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2491,11 +2313,12 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>20.480000000000004</v>
       </c>
       <c r="C5">
-        <f>SUM(B$2:B5)/A5 + 10</f>
-        <v>57</v>
+        <f>(SUM(B$2:B5)+20)/A5</f>
+        <v>34.519999999999996</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2509,11 +2332,12 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>16.384000000000004</v>
       </c>
       <c r="C6">
-        <f>SUM(B$2:B6)/A6 + 10</f>
-        <v>56</v>
+        <f>(SUM(B$2:B6)+20)/A6</f>
+        <v>30.892800000000001</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2527,11 +2351,12 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <f>B6*0.9</f>
+        <v>14.745600000000003</v>
       </c>
       <c r="C7">
-        <f>SUM(B$2:B7)/A7 + 10</f>
-        <v>55</v>
+        <f>(SUM(B$2:B7)+20)/A7</f>
+        <v>28.201599999999999</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2545,11 +2370,12 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <f>B7*0.9</f>
+        <v>13.271040000000003</v>
       </c>
       <c r="C8">
-        <f>SUM(B$2:B8)/A8 + 10</f>
-        <v>54</v>
+        <f>(SUM(B$2:B8)+20)/A8</f>
+        <v>26.068662857142858</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2563,11 +2389,12 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <f>B8*0.95</f>
+        <v>12.607488000000002</v>
       </c>
       <c r="C9">
-        <f>SUM(B$2:B9)/A9 + 10</f>
-        <v>53</v>
+        <f>(SUM(B$2:B9)+20)/A9</f>
+        <v>24.386015999999998</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2581,11 +2408,12 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <f>B9*1</f>
+        <v>12.607488000000002</v>
       </c>
       <c r="C10">
-        <f>SUM(B$2:B10)/A10 + 10</f>
-        <v>52</v>
+        <f>(SUM(B$2:B10)+20)/A10</f>
+        <v>23.077290666666663</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2599,11 +2427,12 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <f>B10*1.05</f>
+        <v>13.237862400000003</v>
       </c>
       <c r="C11">
-        <f>SUM(B$2:B11)/A11 + 10</f>
-        <v>51</v>
+        <f>(SUM(B$2:B11)+20)/A11</f>
+        <v>22.09334784</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2617,11 +2446,12 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <f>B11+2</f>
+        <v>15.237862400000003</v>
       </c>
       <c r="C12">
-        <f>SUM(B$2:B12)/A12 + 10</f>
-        <v>50</v>
+        <f>(SUM(B$2:B12)+20)/A12</f>
+        <v>21.470121890909091</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2635,11 +2465,12 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <f t="shared" ref="B13:B76" si="1">B12+2</f>
+        <v>17.237862400000004</v>
       </c>
       <c r="C13">
-        <f>SUM(B$2:B13)/A13 + 10</f>
-        <v>49</v>
+        <f>(SUM(B$2:B13)+20)/A13</f>
+        <v>21.117433600000002</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2653,11 +2484,12 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>19.237862400000004</v>
       </c>
       <c r="C14">
-        <f>SUM(B$2:B14)/A14 + 10</f>
-        <v>48</v>
+        <f>(SUM(B$2:B14)+20)/A14</f>
+        <v>20.972851200000001</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2671,11 +2503,12 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>21.237862400000004</v>
       </c>
       <c r="C15">
-        <f>SUM(B$2:B15)/A15 + 10</f>
-        <v>47</v>
+        <f>(SUM(B$2:B15)+20)/A15</f>
+        <v>20.991780571428571</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2689,11 +2522,12 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>23.237862400000004</v>
       </c>
       <c r="C16">
-        <f>SUM(B$2:B16)/A16 + 10</f>
-        <v>46.06666666666667</v>
+        <f>(SUM(B$2:B16)+20)/A16</f>
+        <v>21.14151936</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2707,11 +2541,12 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>25.237862400000004</v>
       </c>
       <c r="C17">
-        <f>SUM(B$2:B17)/A17 + 10</f>
-        <v>45.1875</v>
+        <f>(SUM(B$2:B17)+20)/A17</f>
+        <v>21.397540799999998</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2725,11 +2560,12 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>27.237862400000004</v>
       </c>
       <c r="C18">
-        <f>SUM(B$2:B18)/A18 + 10</f>
-        <v>44.352941176470587</v>
+        <f>(SUM(B$2:B18)+20)/A18</f>
+        <v>21.741089129411762</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2743,11 +2579,12 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>29.237862400000004</v>
       </c>
       <c r="C19">
-        <f>SUM(B$2:B19)/A19 + 10</f>
-        <v>43.555555555555557</v>
+        <f>(SUM(B$2:B19)+20)/A19</f>
+        <v>22.15757653333333</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2761,11 +2598,12 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>31.237862400000004</v>
       </c>
       <c r="C20">
-        <f>SUM(B$2:B20)/A20 + 10</f>
-        <v>42.789473684210527</v>
+        <f>(SUM(B$2:B20)+20)/A20</f>
+        <v>22.635486315789468</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2779,11 +2617,12 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>33.237862400000004</v>
       </c>
       <c r="C21">
-        <f>SUM(B$2:B21)/A21 + 10</f>
-        <v>42.05</v>
+        <f>(SUM(B$2:B21)+20)/A21</f>
+        <v>23.165605119999995</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2797,11 +2636,12 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>35.237862400000004</v>
       </c>
       <c r="C22">
-        <f>SUM(B$2:B22)/A22 + 10</f>
-        <v>41.333333333333329</v>
+        <f>(SUM(B$2:B22)+20)/A22</f>
+        <v>23.740474514285708</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2815,11 +2655,12 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>37.237862400000004</v>
       </c>
       <c r="C23">
-        <f>SUM(B$2:B23)/A23 + 10</f>
-        <v>40.727272727272727</v>
+        <f>(SUM(B$2:B23)+20)/A23</f>
+        <v>24.353992145454541</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2833,11 +2674,12 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>39.237862400000004</v>
       </c>
       <c r="C24">
-        <f>SUM(B$2:B24)/A24 + 10</f>
-        <v>40.217391304347828</v>
+        <f>(SUM(B$2:B24)+20)/A24</f>
+        <v>25.001116939130434</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2851,11 +2693,12 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>41.237862400000004</v>
       </c>
       <c r="C25">
-        <f>SUM(B$2:B25)/A25 + 10</f>
-        <v>39.791666666666671</v>
+        <f>(SUM(B$2:B25)+20)/A25</f>
+        <v>25.677648000000001</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2869,11 +2712,12 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>43.237862400000004</v>
       </c>
       <c r="C26">
-        <f>SUM(B$2:B26)/A26 + 10</f>
-        <v>39.44</v>
+        <f>(SUM(B$2:B26)+20)/A26</f>
+        <v>26.380056576000001</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2887,11 +2731,12 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>45.237862400000004</v>
       </c>
       <c r="C27">
-        <f>SUM(B$2:B27)/A27 + 10</f>
-        <v>39.153846153846153</v>
+        <f>(SUM(B$2:B27)+20)/A27</f>
+        <v>27.105356800000003</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2905,11 +2750,12 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>47.237862400000004</v>
       </c>
       <c r="C28">
-        <f>SUM(B$2:B28)/A28 + 10</f>
-        <v>38.925925925925924</v>
+        <f>(SUM(B$2:B28)+20)/A28</f>
+        <v>27.851005155555558</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2923,11 +2769,12 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>49.237862400000004</v>
       </c>
       <c r="C29">
-        <f>SUM(B$2:B29)/A29 + 10</f>
-        <v>38.75</v>
+        <f>(SUM(B$2:B29)+20)/A29</f>
+        <v>28.614821485714291</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2941,11 +2788,12 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>51.237862400000004</v>
       </c>
       <c r="C30">
-        <f>SUM(B$2:B30)/A30 + 10</f>
-        <v>38.655172413793103</v>
+        <f>(SUM(B$2:B30)+20)/A30</f>
+        <v>29.394926344827592</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2959,11 +2807,12 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>53.237862400000004</v>
       </c>
       <c r="C31">
-        <f>SUM(B$2:B31)/A31 + 10</f>
-        <v>38.633333333333333</v>
+        <f>(SUM(B$2:B31)+20)/A31</f>
+        <v>30.189690880000008</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2977,11 +2826,12 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>55.237862400000004</v>
       </c>
       <c r="C32">
-        <f>SUM(B$2:B32)/A32 + 10</f>
-        <v>38.677419354838705</v>
+        <f>(SUM(B$2:B32)+20)/A32</f>
+        <v>30.997696412903235</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2995,11 +2845,12 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>57.237862400000004</v>
       </c>
       <c r="C33">
-        <f>SUM(B$2:B33)/A33 + 10</f>
-        <v>38.78125</v>
+        <f>(SUM(B$2:B33)+20)/A33</f>
+        <v>31.81770160000001</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3013,11 +2864,12 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>59.237862400000004</v>
       </c>
       <c r="C34">
-        <f>SUM(B$2:B34)/A34 + 10</f>
-        <v>38.939393939393938</v>
+        <f>(SUM(B$2:B34)+20)/A34</f>
+        <v>32.648615563636369</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3031,11 +2883,12 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>61.237862400000004</v>
       </c>
       <c r="C35">
-        <f>SUM(B$2:B35)/A35 + 10</f>
-        <v>39.147058823529413</v>
+        <f>(SUM(B$2:B35)+20)/A35</f>
+        <v>33.489475764705894</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3049,11 +2902,12 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>63.237862400000004</v>
       </c>
       <c r="C36">
-        <f>SUM(B$2:B36)/A36 + 10</f>
-        <v>39.4</v>
+        <f>(SUM(B$2:B36)+20)/A36</f>
+        <v>34.339429668571441</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3067,11 +2921,12 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>65.237862400000012</v>
       </c>
       <c r="C37">
-        <f>SUM(B$2:B37)/A37 + 10</f>
-        <v>39.694444444444443</v>
+        <f>(SUM(B$2:B37)+20)/A37</f>
+        <v>35.197719466666676</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3085,11 +2940,12 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>67.237862400000012</v>
       </c>
       <c r="C38">
-        <f>SUM(B$2:B38)/A38 + 10</f>
-        <v>40.027027027027032</v>
+        <f>(SUM(B$2:B38)+20)/A38</f>
+        <v>36.063669275675686</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3103,11 +2959,12 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>69.237862400000012</v>
       </c>
       <c r="C39">
-        <f>SUM(B$2:B39)/A39 + 10</f>
-        <v>40.39473684210526</v>
+        <f>(SUM(B$2:B39)+20)/A39</f>
+        <v>36.936674357894752</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3121,11 +2978,12 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>71.237862400000012</v>
       </c>
       <c r="C40">
-        <f>SUM(B$2:B40)/A40 + 10</f>
-        <v>40.794871794871796</v>
+        <f>(SUM(B$2:B40)+20)/A40</f>
+        <v>37.816192000000015</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3139,11 +2997,12 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>73.237862400000012</v>
       </c>
       <c r="C41">
-        <f>SUM(B$2:B41)/A41 + 10</f>
-        <v>41.225000000000001</v>
+        <f>(SUM(B$2:B41)+20)/A41</f>
+        <v>38.70173376000001</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3157,11 +3016,12 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>75.237862400000012</v>
       </c>
       <c r="C42">
-        <f>SUM(B$2:B42)/A42 + 10</f>
-        <v>41.682926829268297</v>
+        <f>(SUM(B$2:B42)+20)/A42</f>
+        <v>39.592858848780502</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3175,11 +3035,12 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>77.237862400000012</v>
       </c>
       <c r="C43">
-        <f>SUM(B$2:B43)/A43 + 10</f>
-        <v>42.166666666666664</v>
+        <f>(SUM(B$2:B43)+20)/A43</f>
+        <v>40.489168457142874</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3193,11 +3054,12 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>79.237862400000012</v>
       </c>
       <c r="C44">
-        <f>SUM(B$2:B44)/A44 + 10</f>
-        <v>42.674418604651166</v>
+        <f>(SUM(B$2:B44)+20)/A44</f>
+        <v>41.390300874418621</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3211,11 +3073,12 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>81.237862400000012</v>
       </c>
       <c r="C45">
-        <f>SUM(B$2:B45)/A45 + 10</f>
-        <v>43.204545454545453</v>
+        <f>(SUM(B$2:B45)+20)/A45</f>
+        <v>42.29592727272729</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3229,11 +3092,12 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>83.237862400000012</v>
       </c>
       <c r="C46">
-        <f>SUM(B$2:B46)/A46 + 10</f>
-        <v>43.755555555555553</v>
+        <f>(SUM(B$2:B46)+20)/A46</f>
+        <v>43.205748053333352</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3247,11 +3111,12 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>85.237862400000012</v>
       </c>
       <c r="C47">
-        <f>SUM(B$2:B47)/A47 + 10</f>
-        <v>44.326086956521742</v>
+        <f>(SUM(B$2:B47)+20)/A47</f>
+        <v>44.119489669565233</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3265,11 +3130,12 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>87.237862400000012</v>
       </c>
       <c r="C48">
-        <f>SUM(B$2:B48)/A48 + 10</f>
-        <v>44.914893617021278</v>
+        <f>(SUM(B$2:B48)+20)/A48</f>
+        <v>45.036901855319158</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3283,11 +3149,12 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>89.237862400000012</v>
       </c>
       <c r="C49">
-        <f>SUM(B$2:B49)/A49 + 10</f>
-        <v>45.520833333333336</v>
+        <f>(SUM(B$2:B49)+20)/A49</f>
+        <v>45.957755200000008</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3301,11 +3168,12 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>91.237862400000012</v>
       </c>
       <c r="C50">
-        <f>SUM(B$2:B50)/A50 + 10</f>
-        <v>46.142857142857146</v>
+        <f>(SUM(B$2:B50)+20)/A50</f>
+        <v>46.881839020408165</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3319,11 +3187,12 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>93.237862400000012</v>
       </c>
       <c r="C51">
-        <f>SUM(B$2:B51)/A51 + 10</f>
-        <v>46.78</v>
+        <f>(SUM(B$2:B51)+20)/A51</f>
+        <v>47.808959487999999</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3337,11 +3206,12 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>95.237862400000012</v>
       </c>
       <c r="C52">
-        <f>SUM(B$2:B52)/A52 + 10</f>
-        <v>47.431372549019606</v>
+        <f>(SUM(B$2:B52)+20)/A52</f>
+        <v>48.738937976470588</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3355,11 +3225,12 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>97.237862400000012</v>
       </c>
       <c r="C53">
-        <f>SUM(B$2:B53)/A53 + 10</f>
-        <v>48.096153846153847</v>
+        <f>(SUM(B$2:B53)+20)/A53</f>
+        <v>49.671609599999996</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3373,11 +3244,12 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>99.237862400000012</v>
       </c>
       <c r="C54">
-        <f>SUM(B$2:B54)/A54 + 10</f>
-        <v>48.773584905660378</v>
+        <f>(SUM(B$2:B54)+20)/A54</f>
+        <v>50.606821916981119</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3391,11 +3263,12 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>101.23786240000001</v>
       </c>
       <c r="C55">
-        <f>SUM(B$2:B55)/A55 + 10</f>
-        <v>49.462962962962962</v>
+        <f>(SUM(B$2:B55)+20)/A55</f>
+        <v>51.544433777777762</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3409,11 +3282,12 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>103.23786240000001</v>
       </c>
       <c r="C56">
-        <f>SUM(B$2:B56)/A56 + 10</f>
-        <v>50.163636363636364</v>
+        <f>(SUM(B$2:B56)+20)/A56</f>
+        <v>52.4843142981818</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3427,11 +3301,12 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>105.23786240000001</v>
       </c>
       <c r="C57">
-        <f>SUM(B$2:B57)/A57 + 10</f>
-        <v>50.875</v>
+        <f>(SUM(B$2:B57)+20)/A57</f>
+        <v>53.426341942857121</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3445,11 +3320,12 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>107.23786240000001</v>
       </c>
       <c r="C58">
-        <f>SUM(B$2:B58)/A58 + 10</f>
-        <v>51.596491228070178</v>
+        <f>(SUM(B$2:B58)+20)/A58</f>
+        <v>54.370403705263136</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3463,11 +3339,12 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>109.23786240000001</v>
       </c>
       <c r="C59">
-        <f>SUM(B$2:B59)/A59 + 10</f>
-        <v>52.327586206896555</v>
+        <f>(SUM(B$2:B59)+20)/A59</f>
+        <v>55.316394372413768</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3481,11 +3358,12 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>111.23786240000001</v>
       </c>
       <c r="C60">
-        <f>SUM(B$2:B60)/A60 + 10</f>
-        <v>53.067796610169495</v>
+        <f>(SUM(B$2:B60)+20)/A60</f>
+        <v>56.264215864406751</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3499,11 +3377,12 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>113.23786240000001</v>
       </c>
       <c r="C61">
-        <f>SUM(B$2:B61)/A61 + 10</f>
-        <v>53.81666666666667</v>
+        <f>(SUM(B$2:B61)+20)/A61</f>
+        <v>57.213776639999971</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3517,11 +3396,12 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>115.23786240000001</v>
       </c>
       <c r="C62">
-        <f>SUM(B$2:B62)/A62 + 10</f>
-        <v>54.57377049180328</v>
+        <f>(SUM(B$2:B62)+20)/A62</f>
+        <v>58.164991160655703</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3535,11 +3415,12 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>117.23786240000001</v>
       </c>
       <c r="C63">
-        <f>SUM(B$2:B63)/A63 + 10</f>
-        <v>55.338709677419352</v>
+        <f>(SUM(B$2:B63)+20)/A63</f>
+        <v>59.117779406451575</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3553,11 +3434,12 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>94</v>
+        <f t="shared" si="1"/>
+        <v>119.23786240000001</v>
       </c>
       <c r="C64">
-        <f>SUM(B$2:B64)/A64 + 10</f>
-        <v>56.111111111111114</v>
+        <f>(SUM(B$2:B64)+20)/A64</f>
+        <v>60.072066438095199</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3571,11 +3453,12 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>121.23786240000001</v>
       </c>
       <c r="C65">
-        <f>SUM(B$2:B65)/A65 + 10</f>
-        <v>56.890625</v>
+        <f>(SUM(B$2:B65)+20)/A65</f>
+        <v>61.027781999999959</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3589,11 +3472,12 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>123.23786240000001</v>
       </c>
       <c r="C66">
-        <f>SUM(B$2:B66)/A66 + 10</f>
-        <v>57.676923076923075</v>
+        <f>(SUM(B$2:B66)+20)/A66</f>
+        <v>61.984860159999954</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3607,11 +3491,12 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>125.23786240000001</v>
       </c>
       <c r="C67">
-        <f>SUM(B$2:B67)/A67 + 10</f>
-        <v>58.469696969696969</v>
+        <f>(SUM(B$2:B67)+20)/A67</f>
+        <v>62.943238981818133</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3625,11 +3510,12 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>127.23786240000001</v>
       </c>
       <c r="C68">
-        <f>SUM(B$2:B68)/A68 + 10</f>
-        <v>59.268656716417908</v>
+        <f>(SUM(B$2:B68)+20)/A68</f>
+        <v>63.902860226865634</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3643,11 +3529,12 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>129.23786240000001</v>
       </c>
       <c r="C69">
-        <f>SUM(B$2:B69)/A69 + 10</f>
-        <v>60.073529411764703</v>
+        <f>(SUM(B$2:B69)+20)/A69</f>
+        <v>64.863669082352899</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3661,11 +3548,12 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>131.23786240000001</v>
       </c>
       <c r="C70">
-        <f>SUM(B$2:B70)/A70 + 10</f>
-        <v>60.884057971014492</v>
+        <f>(SUM(B$2:B70)+20)/A70</f>
+        <v>65.825613913043441</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3679,11 +3567,12 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>108</v>
+        <f t="shared" si="1"/>
+        <v>133.23786240000001</v>
       </c>
       <c r="C71">
-        <f>SUM(B$2:B71)/A71 + 10</f>
-        <v>61.7</v>
+        <f>(SUM(B$2:B71)+20)/A71</f>
+        <v>66.788646034285691</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3697,11 +3586,12 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>110</v>
+        <f t="shared" si="1"/>
+        <v>135.23786240000001</v>
       </c>
       <c r="C72">
-        <f>SUM(B$2:B72)/A72 + 10</f>
-        <v>62.521126760563384</v>
+        <f>(SUM(B$2:B72)+20)/A72</f>
+        <v>67.752719504225325</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3715,11 +3605,12 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>112</v>
+        <f t="shared" si="1"/>
+        <v>137.23786240000001</v>
       </c>
       <c r="C73">
-        <f>SUM(B$2:B73)/A73 + 10</f>
-        <v>63.347222222222221</v>
+        <f>(SUM(B$2:B73)+20)/A73</f>
+        <v>68.717790933333319</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3733,11 +3624,12 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>114</v>
+        <f t="shared" si="1"/>
+        <v>139.23786240000001</v>
       </c>
       <c r="C74">
-        <f>SUM(B$2:B74)/A74 + 10</f>
-        <v>64.178082191780817</v>
+        <f>(SUM(B$2:B74)+20)/A74</f>
+        <v>69.683819309589026</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3751,11 +3643,12 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>116</v>
+        <f t="shared" si="1"/>
+        <v>141.23786240000001</v>
       </c>
       <c r="C75">
-        <f>SUM(B$2:B75)/A75 + 10</f>
-        <v>65.013513513513516</v>
+        <f>(SUM(B$2:B75)+20)/A75</f>
+        <v>70.650765837837824</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3769,11 +3662,12 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>118</v>
+        <f t="shared" si="1"/>
+        <v>143.23786240000001</v>
       </c>
       <c r="C76">
-        <f>SUM(B$2:B76)/A76 + 10</f>
-        <v>65.853333333333325</v>
+        <f>(SUM(B$2:B76)+20)/A76</f>
+        <v>71.618593791999999</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3787,11 +3681,12 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>120</v>
+        <f t="shared" ref="B77:B100" si="2">B76+2</f>
+        <v>145.23786240000001</v>
       </c>
       <c r="C77">
-        <f>SUM(B$2:B77)/A77 + 10</f>
-        <v>66.69736842105263</v>
+        <f>(SUM(B$2:B77)+20)/A77</f>
+        <v>72.587268378947371</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3805,11 +3700,12 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>122</v>
+        <f t="shared" si="2"/>
+        <v>147.23786240000001</v>
       </c>
       <c r="C78">
-        <f>SUM(B$2:B78)/A78 + 10</f>
-        <v>67.545454545454547</v>
+        <f>(SUM(B$2:B78)+20)/A78</f>
+        <v>73.556756612987016</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3823,11 +3719,12 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>124</v>
+        <f t="shared" si="2"/>
+        <v>149.23786240000001</v>
       </c>
       <c r="C79">
-        <f>SUM(B$2:B79)/A79 + 10</f>
-        <v>68.397435897435898</v>
+        <f>(SUM(B$2:B79)+20)/A79</f>
+        <v>74.527027200000006</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3841,11 +3738,12 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>126</v>
+        <f t="shared" si="2"/>
+        <v>151.23786240000001</v>
       </c>
       <c r="C80">
-        <f>SUM(B$2:B80)/A80 + 10</f>
-        <v>69.25316455696202</v>
+        <f>(SUM(B$2:B80)+20)/A80</f>
+        <v>75.498050430379749</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3859,11 +3757,12 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>128</v>
+        <f t="shared" si="2"/>
+        <v>153.23786240000001</v>
       </c>
       <c r="C81">
-        <f>SUM(B$2:B81)/A81 + 10</f>
-        <v>70.112499999999997</v>
+        <f>(SUM(B$2:B81)+20)/A81</f>
+        <v>76.469798080000004</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3877,11 +3776,12 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>155.23786240000001</v>
       </c>
       <c r="C82">
-        <f>SUM(B$2:B82)/A82 + 10</f>
-        <v>70.975308641975317</v>
+        <f>(SUM(B$2:B82)+20)/A82</f>
+        <v>77.442243318518535</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3895,11 +3795,12 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>132</v>
+        <f t="shared" si="2"/>
+        <v>157.23786240000001</v>
       </c>
       <c r="C83">
-        <f>SUM(B$2:B83)/A83 + 10</f>
-        <v>71.841463414634148</v>
+        <f>(SUM(B$2:B83)+20)/A83</f>
+        <v>78.41536062439026</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3913,11 +3814,12 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>134</v>
+        <f t="shared" si="2"/>
+        <v>159.23786240000001</v>
       </c>
       <c r="C84">
-        <f>SUM(B$2:B84)/A84 + 10</f>
-        <v>72.710843373493987</v>
+        <f>(SUM(B$2:B84)+20)/A84</f>
+        <v>79.389125706024117</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3931,11 +3833,12 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>136</v>
+        <f t="shared" si="2"/>
+        <v>161.23786240000001</v>
       </c>
       <c r="C85">
-        <f>SUM(B$2:B85)/A85 + 10</f>
-        <v>73.583333333333343</v>
+        <f>(SUM(B$2:B85)+20)/A85</f>
+        <v>80.363515428571446</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3949,11 +3852,12 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>138</v>
+        <f t="shared" si="2"/>
+        <v>163.23786240000001</v>
       </c>
       <c r="C86">
-        <f>SUM(B$2:B86)/A86 + 10</f>
-        <v>74.45882352941176</v>
+        <f>(SUM(B$2:B86)+20)/A86</f>
+        <v>81.338507745882382</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3967,11 +3871,12 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>140</v>
+        <f t="shared" si="2"/>
+        <v>165.23786240000001</v>
       </c>
       <c r="C87">
-        <f>SUM(B$2:B87)/A87 + 10</f>
-        <v>75.337209302325576</v>
+        <f>(SUM(B$2:B87)+20)/A87</f>
+        <v>82.314081637209327</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3985,11 +3890,12 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>167.23786240000001</v>
       </c>
       <c r="C88">
-        <f>SUM(B$2:B88)/A88 + 10</f>
-        <v>76.218390804597703</v>
+        <f>(SUM(B$2:B88)+20)/A88</f>
+        <v>83.290217048275892</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4003,11 +3909,12 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>144</v>
+        <f t="shared" si="2"/>
+        <v>169.23786240000001</v>
       </c>
       <c r="C89">
-        <f>SUM(B$2:B89)/A89 + 10</f>
-        <v>77.102272727272734</v>
+        <f>(SUM(B$2:B89)+20)/A89</f>
+        <v>84.266894836363676</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4021,11 +3928,12 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>146</v>
+        <f t="shared" si="2"/>
+        <v>171.23786240000001</v>
       </c>
       <c r="C90">
-        <f>SUM(B$2:B90)/A90 + 10</f>
-        <v>77.988764044943821</v>
+        <f>(SUM(B$2:B90)+20)/A90</f>
+        <v>85.244096719101165</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4039,11 +3947,12 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>148</v>
+        <f t="shared" si="2"/>
+        <v>173.23786240000001</v>
       </c>
       <c r="C91">
-        <f>SUM(B$2:B91)/A91 + 10</f>
-        <v>78.87777777777778</v>
+        <f>(SUM(B$2:B91)+20)/A91</f>
+        <v>86.221805226666703</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4057,11 +3966,12 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>175.23786240000001</v>
       </c>
       <c r="C92">
-        <f>SUM(B$2:B92)/A92 + 10</f>
-        <v>79.769230769230774</v>
+        <f>(SUM(B$2:B92)+20)/A92</f>
+        <v>87.200003657142901</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4075,11 +3985,12 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>152</v>
+        <f t="shared" si="2"/>
+        <v>177.23786240000001</v>
       </c>
       <c r="C93">
-        <f>SUM(B$2:B93)/A93 + 10</f>
-        <v>80.663043478260875</v>
+        <f>(SUM(B$2:B93)+20)/A93</f>
+        <v>88.178676034782654</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -4093,11 +4004,12 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>154</v>
+        <f t="shared" si="2"/>
+        <v>179.23786240000001</v>
       </c>
       <c r="C94">
-        <f>SUM(B$2:B94)/A94 + 10</f>
-        <v>81.55913978494624</v>
+        <f>(SUM(B$2:B94)+20)/A94</f>
+        <v>89.157807070967777</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -4111,11 +4023,12 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>156</v>
+        <f t="shared" si="2"/>
+        <v>181.23786240000001</v>
       </c>
       <c r="C95">
-        <f>SUM(B$2:B95)/A95 + 10</f>
-        <v>82.457446808510639</v>
+        <f>(SUM(B$2:B95)+20)/A95</f>
+        <v>90.137382127659606</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4129,11 +4042,12 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>158</v>
+        <f t="shared" si="2"/>
+        <v>183.23786240000001</v>
       </c>
       <c r="C96">
-        <f>SUM(B$2:B96)/A96 + 10</f>
-        <v>83.357894736842098</v>
+        <f>(SUM(B$2:B96)+20)/A96</f>
+        <v>91.117387183157916</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4147,11 +4061,12 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>160</v>
+        <f t="shared" si="2"/>
+        <v>185.23786240000001</v>
       </c>
       <c r="C97">
-        <f>SUM(B$2:B97)/A97 + 10</f>
-        <v>84.260416666666671</v>
+        <f>(SUM(B$2:B97)+20)/A97</f>
+        <v>92.09780880000001</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4165,11 +4080,12 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>162</v>
+        <f t="shared" si="2"/>
+        <v>187.23786240000001</v>
       </c>
       <c r="C98">
-        <f>SUM(B$2:B98)/A98 + 10</f>
-        <v>85.164948453608247</v>
+        <f>(SUM(B$2:B98)+20)/A98</f>
+        <v>93.07863409484537</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4183,11 +4099,12 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>164</v>
+        <f t="shared" si="2"/>
+        <v>189.23786240000001</v>
       </c>
       <c r="C99">
-        <f>SUM(B$2:B99)/A99 + 10</f>
-        <v>86.071428571428569</v>
+        <f>(SUM(B$2:B99)+20)/A99</f>
+        <v>94.059850710204088</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4201,11 +4118,12 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>166</v>
+        <f t="shared" si="2"/>
+        <v>191.23786240000001</v>
       </c>
       <c r="C100">
-        <f>SUM(B$2:B100)/A100 + 10</f>
-        <v>86.979797979797979</v>
+        <f>(SUM(B$2:B100)+20)/A100</f>
+        <v>95.041446787878783</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4219,11 +4137,11 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C101">
-        <f>SUM(B$2:B101)/A101 + 10</f>
-        <v>87.89</v>
+        <f>(SUM(B$2:B101)+20)/A101</f>
+        <v>96.05103231999999</v>
       </c>
       <c r="D101">
         <v>0</v>
